--- a/project planning form.xlsx
+++ b/project planning form.xlsx
@@ -490,7 +490,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="14.25" customHeight="1"/>
@@ -559,77 +559,77 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -643,7 +643,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -657,7 +657,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -671,63 +671,63 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -735,7 +735,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -743,7 +743,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -751,7 +751,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
